--- a/프로젝트 중간고사.xlsx
+++ b/프로젝트 중간고사.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63DD770-AFF5-4352-BF59-30A2AD552335}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="77">
   <si>
     <t>프론트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -323,14 +322,22 @@
   </si>
   <si>
     <t>맨 위로 버튼 오른쪽 아래로 고정시키는 css 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀장</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,8 +352,24 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -371,8 +394,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -447,14 +481,75 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -464,38 +559,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="셀 확인" xfId="1" builtinId="23"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -773,575 +845,581 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="11.3984375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="12.09765625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="16.19921875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="13.09765625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="39" style="7" customWidth="1"/>
-    <col min="6" max="7" width="8.796875" style="7"/>
+    <col min="1" max="1" width="11.375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.25" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="39" style="4" customWidth="1"/>
+    <col min="6" max="7" width="8.75" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="16" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="6" t="s">
+      <c r="C1" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="3">
         <v>201740203</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="3">
         <v>201440205</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="3">
         <v>201740234</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:7">
+      <c r="A5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="3">
         <v>201440136</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="8" t="s">
+      <c r="C5" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1">
+      <c r="A6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="13"/>
-    </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="9" t="s">
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" s="1" customFormat="1">
+      <c r="A7" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6" t="s">
+      <c r="F7" s="6"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="6" t="s">
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="3" t="s">
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="6" t="s">
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" ht="49.5">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6" t="s">
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6" t="s">
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6" t="s">
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6" t="s">
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6" t="s">
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6" t="s">
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" ht="33">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6" t="s">
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="6" t="s">
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" ht="82.5">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6" t="s">
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6" t="s">
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6" t="s">
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" ht="33">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="6" t="s">
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="F23" s="6"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="3" t="s">
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F24" s="6"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6" t="s">
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F25" s="6"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6" t="s">
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F26" s="6"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="6" t="s">
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F27" s="6"/>
-    </row>
-    <row r="28" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10" t="s">
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F28" s="10"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-    </row>
-    <row r="32" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="9" t="s">
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:7" s="1" customFormat="1">
+      <c r="A32" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="14"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6" t="s">
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="11"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6" t="s">
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6" t="s">
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6" t="s">
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6" t="s">
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6" t="s">
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6" t="s">
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6" t="s">
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6" t="s">
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6" t="s">
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6" t="s">
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6" t="s">
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6" t="s">
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">
